--- a/output/ALASKA_13001211000190.xlsx
+++ b/output/ALASKA_13001211000190.xlsx
@@ -1692,10 +1692,10 @@
         <v>44165</v>
       </c>
       <c r="B119">
-        <v>1.17653843</v>
+        <v>1.1646867</v>
       </c>
       <c r="C119">
-        <v>0.01383849506747503</v>
+        <v>0.008317921692096553</v>
       </c>
     </row>
   </sheetData>

--- a/output/ALASKA_13001211000190.xlsx
+++ b/output/ALASKA_13001211000190.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ALASKA RANGE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1316 +383,962 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40602</v>
       </c>
       <c r="B2">
-        <v>-0.00943134000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40633</v>
       </c>
       <c r="B3">
-        <v>0.0370075700000001</v>
-      </c>
-      <c r="C3">
         <v>0.04688106122800217</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40663</v>
       </c>
       <c r="B4">
-        <v>0.0450031099999999</v>
-      </c>
-      <c r="C4">
         <v>0.007710204082695071</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40694</v>
       </c>
       <c r="B5">
-        <v>0.06890302000000004</v>
-      </c>
-      <c r="C5">
         <v>0.02287065920789466</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40724</v>
       </c>
       <c r="B6">
-        <v>0.08323315000000009</v>
-      </c>
-      <c r="C6">
         <v>0.01340638929058313</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40755</v>
       </c>
       <c r="B7">
-        <v>0.09692992999999994</v>
-      </c>
-      <c r="C7">
         <v>0.0126443508491223</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40786</v>
       </c>
       <c r="B8">
-        <v>0.11640447</v>
-      </c>
-      <c r="C8">
         <v>0.0177536773018856</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40816</v>
       </c>
       <c r="B9">
-        <v>0.1320292999999999</v>
-      </c>
-      <c r="C9">
         <v>0.01399567130002621</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40847</v>
       </c>
       <c r="B10">
-        <v>0.13421539</v>
-      </c>
-      <c r="C10">
         <v>0.001931124927597061</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40877</v>
       </c>
       <c r="B11">
-        <v>0.1541097300000001</v>
-      </c>
-      <c r="C11">
         <v>0.01754017814905517</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40908</v>
       </c>
       <c r="B12">
-        <v>0.16497805</v>
-      </c>
-      <c r="C12">
         <v>0.009417059502652148</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40939</v>
       </c>
       <c r="B13">
-        <v>0.1654378000000001</v>
-      </c>
-      <c r="C13">
         <v>0.0003946426286745019</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40968</v>
       </c>
       <c r="B14">
-        <v>0.1628336500000001</v>
-      </c>
-      <c r="C14">
         <v>-0.002234482183433584</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40999</v>
       </c>
       <c r="B15">
-        <v>0.1819445500000001</v>
-      </c>
-      <c r="C15">
         <v>0.01643476691614487</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41029</v>
       </c>
       <c r="B16">
-        <v>0.1990137599999999</v>
-      </c>
-      <c r="C16">
         <v>0.01444163349287386</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41060</v>
       </c>
       <c r="B17">
-        <v>0.23036246</v>
-      </c>
-      <c r="C17">
         <v>0.02614540470327897</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41090</v>
       </c>
       <c r="B18">
-        <v>0.2317265100000001</v>
-      </c>
-      <c r="C18">
         <v>0.001108657037536709</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41121</v>
       </c>
       <c r="B19">
-        <v>0.2335492699999999</v>
-      </c>
-      <c r="C19">
         <v>0.001479841495008349</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41152</v>
       </c>
       <c r="B20">
-        <v>0.2327295</v>
-      </c>
-      <c r="C20">
         <v>-0.0006645620243445061</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41182</v>
       </c>
       <c r="B21">
-        <v>0.23766051</v>
-      </c>
-      <c r="C21">
         <v>0.004000074631133499</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41213</v>
       </c>
       <c r="B22">
-        <v>0.24391173</v>
-      </c>
-      <c r="C22">
         <v>0.005050835790179731</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41243</v>
       </c>
       <c r="B23">
-        <v>0.2594311499999999</v>
-      </c>
-      <c r="C23">
         <v>0.01247630328238802</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41274</v>
       </c>
       <c r="B24">
-        <v>0.2491855199999999</v>
-      </c>
-      <c r="C24">
         <v>-0.008135125131691456</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41305</v>
       </c>
       <c r="B25">
-        <v>0.25660679</v>
-      </c>
-      <c r="C25">
         <v>0.005940886986906424</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41333</v>
       </c>
       <c r="B26">
-        <v>0.2432966000000001</v>
-      </c>
-      <c r="C26">
         <v>-0.01059216781726913</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41364</v>
       </c>
       <c r="B27">
-        <v>0.26355822</v>
-      </c>
-      <c r="C27">
         <v>0.01629669058855288</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41394</v>
       </c>
       <c r="B28">
-        <v>0.28357312</v>
-      </c>
-      <c r="C28">
         <v>0.01584010905330513</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41425</v>
       </c>
       <c r="B29">
-        <v>0.26122833</v>
-      </c>
-      <c r="C29">
         <v>-0.01740827199622252</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41455</v>
       </c>
       <c r="B30">
-        <v>0.19767768</v>
-      </c>
-      <c r="C30">
         <v>-0.05038790240304869</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41486</v>
       </c>
       <c r="B31">
-        <v>0.22086863</v>
-      </c>
-      <c r="C31">
         <v>0.01936326474749039</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41517</v>
       </c>
       <c r="B32">
-        <v>0.1943022999999999</v>
-      </c>
-      <c r="C32">
         <v>-0.02176018725290707</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41547</v>
       </c>
       <c r="B33">
-        <v>0.2458142999999999</v>
-      </c>
-      <c r="C33">
         <v>0.04313145842555932</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41578</v>
       </c>
       <c r="B34">
-        <v>0.2578027599999999</v>
-      </c>
-      <c r="C34">
         <v>0.009622991163289685</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41608</v>
       </c>
       <c r="B35">
-        <v>0.2594072700000001</v>
-      </c>
-      <c r="C35">
         <v>0.001275645157592153</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41639</v>
       </c>
       <c r="B36">
-        <v>0.27458136</v>
-      </c>
-      <c r="C36">
         <v>0.01204859647983447</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41670</v>
       </c>
       <c r="B37">
-        <v>0.2826329700000001</v>
-      </c>
-      <c r="C37">
         <v>0.006317062411771213</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41698</v>
       </c>
       <c r="B38">
-        <v>0.2968232</v>
-      </c>
-      <c r="C38">
         <v>0.01106335977002049</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41729</v>
       </c>
       <c r="B39">
-        <v>0.28430753</v>
-      </c>
-      <c r="C39">
         <v>-0.009651022591205982</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41759</v>
       </c>
       <c r="B40">
-        <v>0.29111961</v>
-      </c>
-      <c r="C40">
         <v>0.005304087876834229</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41790</v>
       </c>
       <c r="B41">
-        <v>0.2989749900000001</v>
-      </c>
-      <c r="C41">
         <v>0.006084161327237547</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41820</v>
       </c>
       <c r="B42">
-        <v>0.3032741999999999</v>
-      </c>
-      <c r="C42">
         <v>0.003309694207430436</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41851</v>
       </c>
       <c r="B43">
-        <v>0.3111387400000001</v>
-      </c>
-      <c r="C43">
         <v>0.006034447701028789</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41882</v>
       </c>
       <c r="B44">
-        <v>0.29172884</v>
-      </c>
-      <c r="C44">
         <v>-0.01480384905719445</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41912</v>
       </c>
       <c r="B45">
-        <v>0.31191301</v>
-      </c>
-      <c r="C45">
         <v>0.01562570206298108</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41943</v>
       </c>
       <c r="B46">
-        <v>0.2971849799999999</v>
-      </c>
-      <c r="C46">
         <v>-0.01122637696839379</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41973</v>
       </c>
       <c r="B47">
-        <v>0.2862576400000001</v>
-      </c>
-      <c r="C47">
         <v>-0.008423887239274008</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42004</v>
       </c>
       <c r="B48">
-        <v>0.29317072</v>
-      </c>
-      <c r="C48">
         <v>0.005374568659510581</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42035</v>
       </c>
       <c r="B49">
-        <v>0.30304043</v>
-      </c>
-      <c r="C49">
         <v>0.007632178680940127</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42063</v>
       </c>
       <c r="B50">
-        <v>0.3115465900000001</v>
-      </c>
-      <c r="C50">
         <v>0.006527932521633195</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42094</v>
       </c>
       <c r="B51">
-        <v>0.3019893899999999</v>
-      </c>
-      <c r="C51">
         <v>-0.007286969500641338</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42124</v>
       </c>
       <c r="B52">
-        <v>0.2980273899999999</v>
-      </c>
-      <c r="C52">
         <v>-0.003043035550389539</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42155</v>
       </c>
       <c r="B53">
-        <v>0.3049457099999999</v>
-      </c>
-      <c r="C53">
         <v>0.005329872122344037</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42185</v>
       </c>
       <c r="B54">
-        <v>0.3140362999999999</v>
-      </c>
-      <c r="C54">
         <v>0.006966259155716248</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42216</v>
       </c>
       <c r="B55">
-        <v>0.3383130400000001</v>
-      </c>
-      <c r="C55">
         <v>0.01847493862992988</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42247</v>
       </c>
       <c r="B56">
-        <v>0.35662814</v>
-      </c>
-      <c r="C56">
         <v>0.0136852137374377</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42277</v>
       </c>
       <c r="B57">
-        <v>0.3968469699999999</v>
-      </c>
-      <c r="C57">
         <v>0.02964617113131673</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42308</v>
       </c>
       <c r="B58">
-        <v>0.41279456</v>
-      </c>
-      <c r="C58">
         <v>0.01141684833235534</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42338</v>
       </c>
       <c r="B59">
-        <v>0.40861159</v>
-      </c>
-      <c r="C59">
         <v>-0.002960777255541003</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42369</v>
       </c>
       <c r="B60">
-        <v>0.42289059</v>
-      </c>
-      <c r="C60">
         <v>0.01013693206940025</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42400</v>
       </c>
       <c r="B61">
-        <v>0.42435182</v>
-      </c>
-      <c r="C61">
         <v>0.001026944735083246</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42429</v>
       </c>
       <c r="B62">
-        <v>0.43160749</v>
-      </c>
-      <c r="C62">
         <v>0.005094015325511236</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42460</v>
       </c>
       <c r="B63">
-        <v>0.5208721000000001</v>
-      </c>
-      <c r="C63">
         <v>0.06235271233457995</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42490</v>
       </c>
       <c r="B64">
-        <v>0.57008835</v>
-      </c>
-      <c r="C64">
         <v>0.03236054497942331</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42521</v>
       </c>
       <c r="B65">
-        <v>0.5707517799999999</v>
-      </c>
-      <c r="C65">
         <v>0.0004225431008388902</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42551</v>
       </c>
       <c r="B66">
-        <v>0.63870998</v>
-      </c>
-      <c r="C66">
         <v>0.04326476077588781</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42582</v>
       </c>
       <c r="B67">
-        <v>0.6726382200000001</v>
-      </c>
-      <c r="C67">
         <v>0.02070423712193414</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42613</v>
       </c>
       <c r="B68">
-        <v>0.73412046</v>
-      </c>
-      <c r="C68">
         <v>0.03675764386156377</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42643</v>
       </c>
       <c r="B69">
-        <v>0.76345851</v>
-      </c>
-      <c r="C69">
         <v>0.01691811536552668</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42674</v>
       </c>
       <c r="B70">
-        <v>0.82673017</v>
-      </c>
-      <c r="C70">
         <v>0.03587930174779119</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42704</v>
       </c>
       <c r="B71">
-        <v>0.80233523</v>
-      </c>
-      <c r="C71">
         <v>-0.01335442989918978</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42735</v>
       </c>
       <c r="B72">
-        <v>0.83183374</v>
-      </c>
-      <c r="C72">
         <v>0.01636682760731478</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42766</v>
       </c>
       <c r="B73">
-        <v>0.91678818</v>
-      </c>
-      <c r="C73">
         <v>0.04637671975623725</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42794</v>
       </c>
       <c r="B74">
-        <v>0.9988266699999999</v>
-      </c>
-      <c r="C74">
         <v>0.04279997699067617</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42825</v>
       </c>
       <c r="B75">
-        <v>1.00867963</v>
-      </c>
-      <c r="C75">
         <v>0.004929371889959899</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42855</v>
       </c>
       <c r="B76">
-        <v>0.9933072599999999</v>
-      </c>
-      <c r="C76">
         <v>-0.007652972515084566</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42886</v>
       </c>
       <c r="B77">
-        <v>0.98084148</v>
-      </c>
-      <c r="C77">
         <v>-0.006253817587560384</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42916</v>
       </c>
       <c r="B78">
-        <v>0.96450802</v>
-      </c>
-      <c r="C78">
         <v>-0.008245717875415282</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42947</v>
       </c>
       <c r="B79">
-        <v>1.04401633</v>
-      </c>
-      <c r="C79">
         <v>0.0404723774047</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42978</v>
       </c>
       <c r="B80">
-        <v>1.09203247</v>
-      </c>
-      <c r="C80">
         <v>0.02349107455516264</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43008</v>
       </c>
       <c r="B81">
-        <v>1.09831551</v>
-      </c>
-      <c r="C81">
         <v>0.00300331858615932</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43039</v>
       </c>
       <c r="B82">
-        <v>1.05447952</v>
-      </c>
-      <c r="C82">
         <v>-0.02089103845017082</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43069</v>
       </c>
       <c r="B83">
-        <v>1.00978131</v>
-      </c>
-      <c r="C83">
         <v>-0.02175646413842081</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43100</v>
       </c>
       <c r="B84">
-        <v>1.01297725</v>
-      </c>
-      <c r="C84">
         <v>0.001590192915069011</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43131</v>
       </c>
       <c r="B85">
-        <v>1.05645368</v>
-      </c>
-      <c r="C85">
         <v>0.02159807320226803</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43159</v>
       </c>
       <c r="B86">
-        <v>1.04760758</v>
-      </c>
-      <c r="C86">
         <v>-0.004301628617280562</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43190</v>
       </c>
       <c r="B87">
-        <v>1.02382555</v>
-      </c>
-      <c r="C87">
         <v>-0.01161454481429491</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43220</v>
       </c>
       <c r="B88">
-        <v>0.95758364</v>
-      </c>
-      <c r="C88">
         <v>-0.0327310375145724</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43251</v>
       </c>
       <c r="B89">
-        <v>0.8216067300000001</v>
-      </c>
-      <c r="C89">
         <v>-0.06946160931340839</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43281</v>
       </c>
       <c r="B90">
-        <v>0.7653018</v>
-      </c>
-      <c r="C90">
         <v>-0.0309094872524982</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43312</v>
       </c>
       <c r="B91">
-        <v>0.83660205</v>
-      </c>
-      <c r="C91">
         <v>0.04038983589095069</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43343</v>
       </c>
       <c r="B92">
-        <v>0.76658925</v>
-      </c>
-      <c r="C92">
         <v>-0.03812083298066671</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43373</v>
       </c>
       <c r="B93">
-        <v>0.78339022</v>
-      </c>
-      <c r="C93">
         <v>0.0095103997717636</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43404</v>
       </c>
       <c r="B94">
-        <v>0.91240301</v>
-      </c>
-      <c r="C94">
         <v>0.07234131294047352</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43434</v>
       </c>
       <c r="B95">
-        <v>0.8495013199999999</v>
-      </c>
-      <c r="C95">
         <v>-0.03289144059650906</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43465</v>
       </c>
       <c r="B96">
-        <v>0.90022158</v>
-      </c>
-      <c r="C96">
         <v>0.02742374901359912</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43496</v>
       </c>
       <c r="B97">
-        <v>1.02037561</v>
-      </c>
-      <c r="C97">
         <v>0.06323158902342318</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43524</v>
       </c>
       <c r="B98">
-        <v>0.9942674300000001</v>
-      </c>
-      <c r="C98">
         <v>-0.01292243871425458</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43555</v>
       </c>
       <c r="B99">
-        <v>0.9134448399999999</v>
-      </c>
-      <c r="C99">
         <v>-0.04052745824565773</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43585</v>
       </c>
       <c r="B100">
-        <v>0.8891412299999999</v>
-      </c>
-      <c r="C100">
         <v>-0.01270149496444328</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43616</v>
       </c>
       <c r="B101">
-        <v>0.8802632699999999</v>
-      </c>
-      <c r="C101">
         <v>-0.004699468657512695</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43646</v>
       </c>
       <c r="B102">
-        <v>0.96392956</v>
-      </c>
-      <c r="C102">
         <v>0.04449711449184446</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43677</v>
       </c>
       <c r="B103">
-        <v>1.0265895</v>
-      </c>
-      <c r="C103">
         <v>0.03190539074120369</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43708</v>
       </c>
       <c r="B104">
-        <v>0.9932471300000001</v>
-      </c>
-      <c r="C104">
         <v>-0.01645245374063176</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43738</v>
       </c>
       <c r="B105">
-        <v>1.04984172</v>
-      </c>
-      <c r="C105">
         <v>0.02839316266819347</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43769</v>
       </c>
       <c r="B106">
-        <v>1.07388908</v>
-      </c>
-      <c r="C106">
         <v>0.01173132528495913</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43799</v>
       </c>
       <c r="B107">
-        <v>1.06044524</v>
-      </c>
-      <c r="C107">
         <v>-0.006482429619620644</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43830</v>
       </c>
       <c r="B108">
-        <v>1.10566448</v>
-      </c>
-      <c r="C108">
         <v>0.02194634398534179</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43861</v>
       </c>
       <c r="B109">
-        <v>1.13591398</v>
-      </c>
-      <c r="C109">
         <v>0.01436577398123751</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43890</v>
       </c>
       <c r="B110">
-        <v>1.13316626</v>
-      </c>
-      <c r="C110">
         <v>-0.001286437574607002</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43921</v>
       </c>
       <c r="B111">
-        <v>1.07096512</v>
-      </c>
-      <c r="C111">
         <v>-0.02915906798563372</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43951</v>
       </c>
       <c r="B112">
-        <v>1.13084132</v>
-      </c>
-      <c r="C112">
         <v>0.02891222040475516</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43982</v>
       </c>
       <c r="B113">
-        <v>1.17085091</v>
-      </c>
-      <c r="C113">
         <v>0.01877642864556428</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>44012</v>
       </c>
       <c r="B114">
-        <v>1.17969777</v>
-      </c>
-      <c r="C114">
         <v>0.00407529598612566</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>44043</v>
       </c>
       <c r="B115">
-        <v>1.22003388</v>
-      </c>
-      <c r="C115">
         <v>0.01850536829241234</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>44074</v>
       </c>
       <c r="B116">
-        <v>1.20521761</v>
-      </c>
-      <c r="C116">
         <v>-0.006673893643460937</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>44104</v>
       </c>
       <c r="B117">
-        <v>1.14961184</v>
-      </c>
-      <c r="C117">
         <v>-0.02521554777535084</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>44135</v>
       </c>
       <c r="B118">
-        <v>1.14682954</v>
-      </c>
-      <c r="C118">
         <v>-0.001294326700396198</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>44165</v>
       </c>
       <c r="B119">
-        <v>1.1646867</v>
-      </c>
-      <c r="C119">
-        <v>0.008317921692096553</v>
+        <v>0.01138944641128781</v>
       </c>
     </row>
   </sheetData>
